--- a/HT-1/Monopoly-BAC-10-Catálogo de conceptos.xlsx
+++ b/HT-1/Monopoly-BAC-10-Catálogo de conceptos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347B6E3-A899-CC4F-9BE3-E526914E7D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4385F47-D08D-A646-9081-E6172F50CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="540" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-10" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,9 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +555,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -609,7 +606,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -618,7 +615,7 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -629,7 +626,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -649,7 +646,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -658,7 +655,7 @@
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">

--- a/HT-1/Monopoly-BAC-10-Catálogo de conceptos.xlsx
+++ b/HT-1/Monopoly-BAC-10-Catálogo de conceptos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4385F47-D08D-A646-9081-E6172F50CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4F3B8-E86C-4D89-9CA1-83F0E9676D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-10" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>A Playbook for Business Architecture Construction</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Persona que juega el juego.</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Suburbio</t>
+  </si>
+  <si>
+    <t>Agrupación de propiedades</t>
   </si>
 </sst>
 </file>
@@ -218,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +247,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,38 +570,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -594,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -605,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -614,7 +632,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -625,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -634,7 +652,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -645,7 +663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -654,65 +672,76 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
